--- a/data/DataTest.xlsx
+++ b/data/DataTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IchsanN\Documents\code\kecerdasan buatan\NaiveBayesHRAttrition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\NaiveBayesHRAttrition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE2F96-DAD0-46FC-9942-9E6B1A0BE82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2472CE-C2C0-42EF-8F23-430DB3FB7468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>level</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Junior</t>
-  </si>
-  <si>
-    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -135,15 +132,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +153,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -166,10 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -177,7 +191,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,14 +204,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -224,22 +238,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -251,131 +325,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -388,21 +489,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -414,22 +526,22 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -445,12 +557,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A6" si="0">IF(B2&lt;30,"Junior",IF(AND(B2&gt;=30,B2&lt;40),"Junior Senior","Senior"))</f>
+        <f>IF(B2&lt;30,"Junior",IF(AND(B2&gt;=30,B2&lt;40),"Junior Senior","Senior"))</f>
         <v>Senior</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -460,25 +572,25 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E6" si="1">IF(F2=1,"SMA",IF(F2=2,"D3",IF(F2=3,"S1",IF(F2=4,"S2","S3"))))</f>
+        <f>IF(F2=1,"SMA",IF(F2=2,"D3",IF(F2=3,"S1",IF(F2=4,"S2","S3"))))</f>
         <v>D3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>94</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -494,12 +606,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B3&lt;30,"Junior",IF(AND(B3&gt;=30,B3&lt;40),"Junior Senior","Senior"))</f>
         <v>Senior</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -509,25 +621,25 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E7" si="0">IF(F3=1,"SMA",IF(F3=2,"D3",IF(F3=3,"S1",IF(F3=4,"S2","S3"))))</f>
         <v>SMA</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>61</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -543,12 +655,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B4&lt;30,"Junior",IF(AND(B4&gt;=30,B4&lt;40),"Junior Senior","Senior"))</f>
         <v>Junior Senior</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -558,25 +670,25 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>D3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>92</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -592,12 +704,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B5&lt;30,"Junior",IF(AND(B5&gt;=30,B5&lt;40),"Junior Senior","Senior"))</f>
         <v>Junior Senior</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -607,25 +719,25 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>S2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>56</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -641,12 +753,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6&lt;30,"Junior",IF(AND(B6&gt;=30,B6&lt;40),"Junior Senior","Senior"))</f>
         <v>Junior Senior</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -656,25 +768,25 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>S2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>56</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -690,11 +802,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -703,25 +815,26 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>S1</v>
+      </c>
+      <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>50</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
